--- a/data/race_entrant_data_example.xlsx
+++ b/data/race_entrant_data_example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\GitHub\race_timing_app_dev_Benjamin_Meyer\race_timing_app_dev\Benjamin Meyer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\GitHub\race_results_sorter_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="150" windowWidth="25035" windowHeight="14520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2790" yWindow="150" windowWidth="25035" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Questions? Contact benjamin.meyer.ak@gmail.com</t>
+  </si>
+  <si>
+    <t>NOTE: Date and time formats must be in the same format as is shown in the example template</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +551,11 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/data/race_entrant_data_example.xlsx
+++ b/data/race_entrant_data_example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\GitHub\race_results_sorter_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\race_results_sorter_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5F3DF-B46C-4654-81E7-0852C0D27573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="150" windowWidth="25035" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="90" yWindow="375" windowWidth="27045" windowHeight="12735" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -514,10 +515,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -944,7 +945,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>race_categories!$A$2:$A$20</xm:f>
           </x14:formula1>
@@ -957,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1153,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="1">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="C17" s="4">
         <v>0.54513888888888895</v>
@@ -1163,7 +1164,7 @@
         <v>127</v>
       </c>
       <c r="B18" s="1">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="C18" s="4">
         <v>0.54652777777777783</v>
